--- a/balancigastos/static/documents/asistencias_template.xlsx
+++ b/balancigastos/static/documents/asistencias_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE47D7AC-D80E-4CEA-9677-E1732F63599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2A232-62DA-4B79-8627-1CF6C9F33B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencias" sheetId="2" r:id="rId1"/>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CC7ECC-E080-448E-A05F-4FB234B3266E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,7 +403,7 @@
     <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -411,7 +411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -421,8 +421,11 @@
       <c r="C2" s="1">
         <v>45546</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="1">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -432,8 +435,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -443,8 +449,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -452,6 +461,9 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
@@ -465,7 +477,7 @@
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
